--- a/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6BC813-1821-48CA-9798-CF4704923810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0A351-9605-48E3-ADEC-B641ED6155DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,13 +56,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +169,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -301,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,25 +329,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -670,7 +679,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -722,7 +731,7 @@
         <v>1074741.0543269999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -742,7 +751,7 @@
         <v>3435.2357788085901</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -762,7 +771,7 @@
         <v>3704.9186401367101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -782,7 +791,7 @@
         <v>3729.54809570312</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -802,7 +811,7 @@
         <v>3887.23388671875</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -822,7 +831,7 @@
         <v>3817.72314453125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -842,7 +851,7 @@
         <v>3803.3037109375</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -862,7 +871,7 @@
         <v>3637.884765625</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -882,7 +891,7 @@
         <v>3627.44189453125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -902,7 +911,7 @@
         <v>3600.2188720703102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -922,7 +931,7 @@
         <v>3509.9586181640602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -942,7 +951,7 @@
         <v>3506.9662475585901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -962,9 +971,6 @@
         <v>3570.0855102538999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -976,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -992,7 +998,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>1733255.38244945</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>4436.5529174804597</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>5903.2086181640598</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>7176.7824707031205</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>7808.4229736328098</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>8292.1265258789008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>8553.6431884765607</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>8663.9679565429597</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>8897.7013549804597</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>9089.8758544921802</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>9301.3347778320294</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>9261.2660522460901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1284,9 +1290,6 @@
         <v>9140.2506103515607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1298,14 +1301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1314,7 +1317,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>1269662.4201824099</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>3124.01806640625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>3389.5722045898401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>3397.4667358398401</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>3563.8532104492101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>3533.0127563476499</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>3448.7821655273401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>3342.4814453125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>3396.2127685546802</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>3361.1282348632799</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>3314.1324462890602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>3322.1124267578102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1606,9 +1609,6 @@
         <v>3307.3948974609302</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1620,14 +1620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1636,7 +1636,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1405620.28253757</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1954.6513061523401</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>2038.44482421875</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2107.9066772460901</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>2096.5997924804601</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>2140.6116943359302</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>2185.0616455078102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>2214.5941162109302</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>2237.0380859375</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>2319.1632690429601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2381.5755615234302</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2369.84814453125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1928,9 +1928,6 @@
         <v>2361.99145507812</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -1942,14 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1958,7 +1955,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>1003505.33828068</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>2098.12426757812</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>2188.00952148437</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>2125.2779541015602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>2089.0281982421802</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>2084.18920898437</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>2027.7160034179601</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>2012.98193359375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>1955.85607910156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>1938.1547241210901</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>1921.40222167968</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>1902.3385620117101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2250,10 +2247,6 @@
         <v>1852.7008666992101</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2265,14 +2258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2281,7 +2274,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2333,7 +2326,7 @@
         <v>3278901.71682578</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2353,7 +2346,7 @@
         <v>5808.6310424804597</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2373,7 +2366,7 @@
         <v>7041.5203857421802</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2393,7 +2386,7 @@
         <v>7626.1987915038999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2413,7 +2406,7 @@
         <v>8112.7598266601499</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2433,7 +2426,7 @@
         <v>8512.0362548828107</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2453,7 +2446,7 @@
         <v>9042.3573608398401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2473,7 +2466,7 @@
         <v>9327.4514160156195</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>9431.65087890625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2513,7 +2506,7 @@
         <v>9735.7137451171802</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2533,7 +2526,7 @@
         <v>9978.0470581054597</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2553,7 +2546,7 @@
         <v>9936.1830444335901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2573,10 +2566,6 @@
         <v>9913.7327270507794</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2588,14 +2577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2604,7 +2593,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2656,7 +2645,7 @@
         <v>711838.11305250297</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2676,7 +2665,7 @@
         <v>1241.89770507812</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2696,7 +2685,7 @@
         <v>1160.93725585937</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2716,7 +2705,7 @@
         <v>1122.15502929687</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2736,7 +2725,7 @@
         <v>1171.8157348632801</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2756,7 +2745,7 @@
         <v>1154.0830078125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2776,7 +2765,7 @@
         <v>1135.8300170898401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>1104.27734375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2816,7 +2805,7 @@
         <v>1094.08374023437</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2836,7 +2825,7 @@
         <v>1106.2444458007801</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2856,7 +2845,7 @@
         <v>1102.3425903320301</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2876,7 +2865,7 @@
         <v>1119.966796875</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2896,10 +2885,6 @@
         <v>1130.26171875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -2911,14 +2896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2927,7 +2912,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,24 +2938,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="C2" s="3">
-        <v>21.825069803978899</v>
+        <v>21.847408969082998</v>
       </c>
       <c r="D2" s="4">
-        <v>0.56925296466805697</v>
+        <v>0.57697994452602697</v>
       </c>
       <c r="E2" s="1">
-        <v>17153.836791992198</v>
+        <v>13969.3303222656</v>
       </c>
       <c r="F2" s="1">
-        <v>5497.1121826171902</v>
+        <v>4036.62939453125</v>
       </c>
       <c r="G2" s="6">
         <v>482390.59586799901</v>
@@ -2979,266 +2964,263 @@
         <v>1722367.66803694</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="3">
-        <v>3.15</v>
+      <c r="B3" s="7">
+        <v>3.1</v>
       </c>
       <c r="C3" s="3">
-        <v>23.118238495824698</v>
+        <v>22.957300394245401</v>
       </c>
       <c r="D3" s="4">
-        <v>0.61009898214715697</v>
+        <v>0.60359901704243402</v>
       </c>
       <c r="E3" s="1">
-        <v>14335.287475585899</v>
+        <v>14476.1594238281</v>
       </c>
       <c r="F3" s="1">
-        <v>4782.8654785156205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
+        <v>4777.0507202148401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="C4" s="3">
-        <v>24.227979660238699</v>
+        <v>24.346362757427201</v>
       </c>
       <c r="D4" s="4">
-        <v>0.64472830290949301</v>
+        <v>0.65526260575265105</v>
       </c>
       <c r="E4" s="1">
-        <v>16530.753051757802</v>
+        <v>13825.637207031201</v>
       </c>
       <c r="F4" s="1">
-        <v>6396.3753051757803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>5029.7850341796802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>25.132357031722801</v>
+        <v>25.277564777916801</v>
       </c>
       <c r="D5" s="4">
-        <v>0.67756447908533002</v>
+        <v>0.68931150585533796</v>
       </c>
       <c r="E5" s="1">
-        <v>15842.6346435547</v>
+        <v>13403.736328125</v>
       </c>
       <c r="F5" s="1">
-        <v>6426.1734619140598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>5160.2702026367097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>25.838374372970101</v>
+        <v>26.001359578719502</v>
       </c>
       <c r="D6" s="4">
-        <v>0.70058589022724405</v>
+        <v>0.71204496712696697</v>
       </c>
       <c r="E6" s="1">
-        <v>15220.087524414101</v>
+        <v>12992.006469726501</v>
       </c>
       <c r="F6" s="1">
-        <v>6365.6382446289099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
+        <v>5201.3128051757803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>26.387441749387801</v>
+        <v>26.579359290701301</v>
       </c>
       <c r="D7" s="4">
-        <v>0.71764049535262897</v>
+        <v>0.73064994927043203</v>
       </c>
       <c r="E7" s="1">
-        <v>15035.1364746094</v>
+        <v>12840.9610595703</v>
       </c>
       <c r="F7" s="1">
-        <v>6348.2008056640598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
+        <v>5212.2844238281205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>8.1</v>
       </c>
       <c r="C8" s="3">
-        <v>26.944091596093799</v>
+        <v>27.1662838245385</v>
       </c>
       <c r="D8" s="4">
-        <v>0.73484589998449301</v>
+        <v>0.74740529757502805</v>
       </c>
       <c r="E8" s="1">
-        <v>14440.6359863281</v>
+        <v>12337.4190673828</v>
       </c>
       <c r="F8" s="1">
-        <v>6260.5437622070303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>5161.7863769531205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>9.1999999999999993</v>
       </c>
       <c r="C9" s="3">
-        <v>27.3504863261279</v>
+        <v>27.617409143132299</v>
       </c>
       <c r="D9" s="4">
-        <v>0.74706485641291498</v>
+        <v>0.76102749208375897</v>
       </c>
       <c r="E9" s="1">
-        <v>14218.254272460899</v>
+        <v>12098.5244140625</v>
       </c>
       <c r="F9" s="1">
-        <v>6291.0760498046902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
+        <v>5192.8258666992097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>10.3</v>
       </c>
       <c r="C10" s="3">
-        <v>27.7249928379183</v>
+        <v>28.019406119454601</v>
       </c>
       <c r="D10" s="4">
-        <v>0.75958798419724005</v>
+        <v>0.77381779895181502</v>
       </c>
       <c r="E10" s="1">
-        <v>14029.632202148399</v>
+        <v>11914.3583984375</v>
       </c>
       <c r="F10" s="1">
-        <v>6127.4661865234402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
+        <v>5054.8423461913999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="3">
-        <v>11.57</v>
+      <c r="B11" s="7">
+        <v>11.6</v>
       </c>
       <c r="C11" s="3">
-        <v>28.404281529839398</v>
+        <v>28.412063415542001</v>
       </c>
       <c r="D11" s="4">
-        <v>0.78474335211861201</v>
+        <v>0.78517892745176399</v>
       </c>
       <c r="E11" s="1">
-        <v>11703.910644531299</v>
+        <v>11681.0456542968</v>
       </c>
       <c r="F11" s="1">
-        <v>5024.9151611328098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>5012.1848144531205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="3">
-        <v>12.8</v>
+      <c r="B12" s="7">
+        <v>12.799999999999899</v>
       </c>
       <c r="C12" s="3">
-        <v>28.383502281534501</v>
+        <v>28.746114123760901</v>
       </c>
       <c r="D12" s="4">
-        <v>0.77964878539680504</v>
+        <v>0.79454059792805798</v>
       </c>
       <c r="E12" s="1">
-        <v>13552.7380371094</v>
+        <v>11525.702758789001</v>
       </c>
       <c r="F12" s="1">
-        <v>6059.685546875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
+        <v>5024.0153808593705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>14.1</v>
       </c>
       <c r="C13" s="3">
-        <v>28.676215770608501</v>
+        <v>29.068694949103602</v>
       </c>
       <c r="D13" s="4">
-        <v>0.78799930530921003</v>
+        <v>0.80283178728417603</v>
       </c>
       <c r="E13" s="1">
-        <v>13456.713378906299</v>
+        <v>11450.5524902343</v>
       </c>
       <c r="F13" s="1">
-        <v>6045.1759643554697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>5027.9668579101499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="3">
-        <v>15.4</v>
+      <c r="B14" s="7">
+        <v>15.5</v>
       </c>
       <c r="C14" s="3">
-        <v>28.9214242687633</v>
+        <v>29.3553447236023</v>
       </c>
       <c r="D14" s="4">
-        <v>0.79489537327827398</v>
+        <v>0.81047517718024598</v>
       </c>
       <c r="E14" s="1">
-        <v>13227.2185058594</v>
+        <v>11239.139282226501</v>
       </c>
       <c r="F14" s="1">
-        <v>5960.3962402343795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
-    <row r="18" ht="14.25"/>
-    <row r="19" customFormat="1" ht="14.25"/>
-    <row r="20" customFormat="1" ht="14.25"/>
-    <row r="21" customFormat="1" ht="14.25"/>
-    <row r="22" customFormat="1" ht="14.25"/>
-    <row r="23" customFormat="1" ht="14.25"/>
-    <row r="24" customFormat="1" ht="14.25"/>
-    <row r="25" customFormat="1" ht="14.25"/>
-    <row r="26" customFormat="1" ht="14.25"/>
-    <row r="27" customFormat="1" ht="14.25"/>
-    <row r="28" customFormat="1" ht="14.25"/>
-    <row r="29" customFormat="1" ht="14.25"/>
-    <row r="30" customFormat="1" ht="14.25"/>
-    <row r="31" customFormat="1" ht="14.25"/>
+        <v>4954.3235473632803</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="16"/>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;Cページ &amp;P</oddFooter>

--- a/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9829B3-E8DF-4392-A037-C2F18D548350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0CFDCD-4CC7-413A-93CF-234FBA95AE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="240" windowWidth="12315" windowHeight="11835" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -1085,6 +1087,322 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81C9E3-F437-4E4B-8218-05F64DA02429}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>7.91015625</v>
+      </c>
+      <c r="C2">
+        <v>34.4244566893517</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.90507232709611296</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10421.376586914001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3266.4017333984302</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12">
+        <v>16.50390625</v>
+      </c>
+      <c r="C3">
+        <v>38.311159892519797</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.93509642992615805</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7509.2668457031205</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3188.7828369140602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>24.70703125</v>
+      </c>
+      <c r="C4">
+        <v>39.883865510083702</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.94491583895859199</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7011.6824951171802</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3272.38500976562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12">
+        <v>32.12890625</v>
+      </c>
+      <c r="C5">
+        <v>40.741931146612004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.95006870733978799</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6982.0711669921802</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3373.4412231445299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>38.96484375</v>
+      </c>
+      <c r="C6">
+        <v>41.320967480164398</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.95460015242836005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7111.8050537109302</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3471.8869018554601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45.41015625</v>
+      </c>
+      <c r="C7">
+        <v>41.761490621193502</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.95645715303791001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7210.3151855468705</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3555.4526977538999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>51.66015625</v>
+      </c>
+      <c r="C8">
+        <v>42.126344561583203</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.95872099725711801</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7333.2419433593705</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3632.77734375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="12">
+        <v>56.93359375</v>
+      </c>
+      <c r="C9">
+        <v>42.438799662744401</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.96088044564185404</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7406.6932373046802</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3689.6866455078102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>61.03515625</v>
+      </c>
+      <c r="C10">
+        <v>42.7101957529947</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96246889877808495</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7499.0892333984302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3747.7782592773401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="12">
+        <v>64.55078125</v>
+      </c>
+      <c r="C11">
+        <v>42.962679383701598</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.963840730970416</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7562.1134033203098</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3803.1279296875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>67.48046875</v>
+      </c>
+      <c r="C12">
+        <v>43.195475572975297</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.96552897947855598</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7622.5628662109302</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3848.2734375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12">
+        <v>69.82421875</v>
+      </c>
+      <c r="C13">
+        <v>43.399283198973102</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.96716895303404404</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7666.6370849609302</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3875.3086547851499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>71.97265625</v>
+      </c>
+      <c r="C14">
+        <v>43.592082087299801</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.96849276531518602</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7702.5390625</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3893.4097900390602</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
@@ -2050,7 +2368,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -3009,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3323,4 +3641,320 @@
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92B4A1-9336-4139-8E5B-6C673CAC2947}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>8.69140625</v>
+      </c>
+      <c r="C2">
+        <v>35.9454542007228</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.94649250695779197</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8440.9644775390607</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3527.7847290038999</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12">
+        <v>20.99609375</v>
+      </c>
+      <c r="C3">
+        <v>41.034457323777801</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.96585821349146805</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6205.6685791015598</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3237.7406616210901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36.42578125</v>
+      </c>
+      <c r="C4">
+        <v>43.194058677046598</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.97171282120230196</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5660.3063964843705</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3183.3080444335901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12">
+        <v>50.48828125</v>
+      </c>
+      <c r="C5">
+        <v>44.103561523111097</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97413518319471903</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5572.48876953125</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3170.7501220703102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>60.05859375</v>
+      </c>
+      <c r="C6">
+        <v>44.644370885961699</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97567704014857004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5582.2443847656205</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3200.7998657226499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12">
+        <v>66.11328125</v>
+      </c>
+      <c r="C7">
+        <v>45.017883084888098</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.97684025436517596</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5629.8952636718705</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3229.23095703125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>70.21484375</v>
+      </c>
+      <c r="C8">
+        <v>45.307606542608298</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.977742374378892</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5683.0521240234302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3245.48388671875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="12">
+        <v>73.33984375</v>
+      </c>
+      <c r="C9">
+        <v>45.562843060893798</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.97858034951425199</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5717.2384033203098</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3258.1553344726499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>75.87890625</v>
+      </c>
+      <c r="C10">
+        <v>45.799330082976198</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.97935796346871196</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5772.4465332031205</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3276.5884399413999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="12">
+        <v>77.83203125</v>
+      </c>
+      <c r="C11">
+        <v>45.982715272135998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.98000196722505895</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5817.3602294921802</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3295.82983398437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>79.58984375</v>
+      </c>
+      <c r="C12">
+        <v>46.1615540289732</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.980625699899492</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5855.9415283203098</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3313.0929565429601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12">
+        <v>81.15234375</v>
+      </c>
+      <c r="C13">
+        <v>46.338194149790198</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.98122843395173098</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5882.7336425781205</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3328.2852783203102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>82.32421875</v>
+      </c>
+      <c r="C14">
+        <v>46.478503139818002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98170330003517503</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5904.3582763671802</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3335.7627563476499</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0CFDCD-4CC7-413A-93CF-234FBA95AE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F36D39-E0C8-4164-852B-6C8166BB4C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Var(--jp-code-font-family)"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1091,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B81C9E3-F437-4E4B-8218-05F64DA02429}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -1143,11 +1144,11 @@
       <c r="D2" s="4">
         <v>0.90507232709611296</v>
       </c>
-      <c r="E2" s="1">
-        <v>10421.376586914001</v>
+      <c r="E2" s="11">
+        <v>651.336036682128</v>
       </c>
       <c r="F2" s="1">
-        <v>3266.4017333984302</v>
+        <v>204.150108337402</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -1165,11 +1166,11 @@
       <c r="D3" s="4">
         <v>0.93509642992615805</v>
       </c>
-      <c r="E3" s="1">
-        <v>7509.2668457031205</v>
+      <c r="E3" s="11">
+        <v>469.32917785644503</v>
       </c>
       <c r="F3" s="1">
-        <v>3188.7828369140602</v>
+        <v>199.298927307128</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1185,11 +1186,11 @@
       <c r="D4" s="4">
         <v>0.94491583895859199</v>
       </c>
-      <c r="E4" s="1">
-        <v>7011.6824951171802</v>
+      <c r="E4" s="11">
+        <v>438.23015594482399</v>
       </c>
       <c r="F4" s="1">
-        <v>3272.38500976562</v>
+        <v>204.52406311035099</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1205,11 +1206,11 @@
       <c r="D5" s="4">
         <v>0.95006870733978799</v>
       </c>
-      <c r="E5" s="1">
-        <v>6982.0711669921802</v>
+      <c r="E5" s="11">
+        <v>436.37944793701098</v>
       </c>
       <c r="F5" s="1">
-        <v>3373.4412231445299</v>
+        <v>210.840076446533</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1225,11 +1226,11 @@
       <c r="D6" s="4">
         <v>0.95460015242836005</v>
       </c>
-      <c r="E6" s="1">
-        <v>7111.8050537109302</v>
+      <c r="E6" s="11">
+        <v>444.48781585693303</v>
       </c>
       <c r="F6" s="1">
-        <v>3471.8869018554601</v>
+        <v>216.992931365966</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1245,11 +1246,11 @@
       <c r="D7" s="4">
         <v>0.95645715303791001</v>
       </c>
-      <c r="E7" s="1">
-        <v>7210.3151855468705</v>
+      <c r="E7" s="11">
+        <v>450.64469909667901</v>
       </c>
       <c r="F7" s="1">
-        <v>3555.4526977538999</v>
+        <v>222.215793609619</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1265,11 +1266,11 @@
       <c r="D8" s="4">
         <v>0.95872099725711801</v>
       </c>
-      <c r="E8" s="1">
-        <v>7333.2419433593705</v>
+      <c r="E8" s="11">
+        <v>458.32762145996003</v>
       </c>
       <c r="F8" s="1">
-        <v>3632.77734375</v>
+        <v>227.048583984375</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1285,11 +1286,11 @@
       <c r="D9" s="4">
         <v>0.96088044564185404</v>
       </c>
-      <c r="E9" s="1">
-        <v>7406.6932373046802</v>
+      <c r="E9" s="11">
+        <v>462.918327331542</v>
       </c>
       <c r="F9" s="1">
-        <v>3689.6866455078102</v>
+        <v>230.605415344238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1305,11 +1306,11 @@
       <c r="D10" s="4">
         <v>0.96246889877808495</v>
       </c>
-      <c r="E10" s="1">
-        <v>7499.0892333984302</v>
+      <c r="E10" s="11">
+        <v>468.693077087402</v>
       </c>
       <c r="F10" s="1">
-        <v>3747.7782592773401</v>
+        <v>234.23614120483299</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1325,11 +1326,11 @@
       <c r="D11" s="4">
         <v>0.963840730970416</v>
       </c>
-      <c r="E11" s="1">
-        <v>7562.1134033203098</v>
+      <c r="E11" s="11">
+        <v>472.63208770751902</v>
       </c>
       <c r="F11" s="1">
-        <v>3803.1279296875</v>
+        <v>237.69549560546801</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1345,11 +1346,11 @@
       <c r="D12" s="4">
         <v>0.96552897947855598</v>
       </c>
-      <c r="E12" s="1">
-        <v>7622.5628662109302</v>
+      <c r="E12" s="11">
+        <v>476.41017913818303</v>
       </c>
       <c r="F12" s="1">
-        <v>3848.2734375</v>
+        <v>240.51708984375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1365,11 +1366,11 @@
       <c r="D13" s="4">
         <v>0.96716895303404404</v>
       </c>
-      <c r="E13" s="1">
-        <v>7666.6370849609302</v>
+      <c r="E13" s="11">
+        <v>479.16481781005803</v>
       </c>
       <c r="F13" s="1">
-        <v>3875.3086547851499</v>
+        <v>242.20679092407201</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1385,11 +1386,11 @@
       <c r="D14" s="4">
         <v>0.96849276531518602</v>
       </c>
-      <c r="E14" s="1">
-        <v>7702.5390625</v>
+      <c r="E14" s="11">
+        <v>481.40869140625</v>
       </c>
       <c r="F14" s="1">
-        <v>3893.4097900390602</v>
+        <v>243.33811187744101</v>
       </c>
     </row>
   </sheetData>
@@ -3647,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92B4A1-9336-4139-8E5B-6C673CAC2947}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -3699,11 +3700,11 @@
       <c r="D2" s="4">
         <v>0.94649250695779197</v>
       </c>
-      <c r="E2" s="1">
-        <v>8440.9644775390607</v>
+      <c r="E2" s="11">
+        <v>527.56027984619095</v>
       </c>
       <c r="F2" s="1">
-        <v>3527.7847290038999</v>
+        <v>220.486545562744</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -3721,11 +3722,11 @@
       <c r="D3" s="4">
         <v>0.96585821349146805</v>
       </c>
-      <c r="E3" s="1">
-        <v>6205.6685791015598</v>
+      <c r="E3" s="11">
+        <v>387.85428619384697</v>
       </c>
       <c r="F3" s="1">
-        <v>3237.7406616210901</v>
+        <v>202.35879135131799</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3741,11 +3742,11 @@
       <c r="D4" s="4">
         <v>0.97171282120230196</v>
       </c>
-      <c r="E4" s="1">
-        <v>5660.3063964843705</v>
+      <c r="E4" s="11">
+        <v>353.76914978027298</v>
       </c>
       <c r="F4" s="1">
-        <v>3183.3080444335901</v>
+        <v>198.95675277709901</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3761,11 +3762,11 @@
       <c r="D5" s="4">
         <v>0.97413518319471903</v>
       </c>
-      <c r="E5" s="1">
-        <v>5572.48876953125</v>
+      <c r="E5" s="11">
+        <v>348.28054809570301</v>
       </c>
       <c r="F5" s="1">
-        <v>3170.7501220703102</v>
+        <v>198.17188262939399</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3781,11 +3782,11 @@
       <c r="D6" s="4">
         <v>0.97567704014857004</v>
       </c>
-      <c r="E6" s="1">
-        <v>5582.2443847656205</v>
+      <c r="E6" s="11">
+        <v>348.89027404785099</v>
       </c>
       <c r="F6" s="1">
-        <v>3200.7998657226499</v>
+        <v>200.04999160766599</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3801,11 +3802,11 @@
       <c r="D7" s="4">
         <v>0.97684025436517596</v>
       </c>
-      <c r="E7" s="1">
-        <v>5629.8952636718705</v>
+      <c r="E7" s="11">
+        <v>351.86845397949202</v>
       </c>
       <c r="F7" s="1">
-        <v>3229.23095703125</v>
+        <v>201.82693481445301</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3821,11 +3822,11 @@
       <c r="D8" s="4">
         <v>0.977742374378892</v>
       </c>
-      <c r="E8" s="1">
-        <v>5683.0521240234302</v>
+      <c r="E8" s="11">
+        <v>355.19075775146399</v>
       </c>
       <c r="F8" s="1">
-        <v>3245.48388671875</v>
+        <v>202.84274291992099</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3841,11 +3842,11 @@
       <c r="D9" s="4">
         <v>0.97858034951425199</v>
       </c>
-      <c r="E9" s="1">
-        <v>5717.2384033203098</v>
+      <c r="E9" s="11">
+        <v>357.32740020751902</v>
       </c>
       <c r="F9" s="1">
-        <v>3258.1553344726499</v>
+        <v>203.63470840454099</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3861,11 +3862,11 @@
       <c r="D10" s="4">
         <v>0.97935796346871196</v>
       </c>
-      <c r="E10" s="1">
-        <v>5772.4465332031205</v>
+      <c r="E10" s="11">
+        <v>360.77790832519503</v>
       </c>
       <c r="F10" s="1">
-        <v>3276.5884399413999</v>
+        <v>204.78677749633701</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3881,11 +3882,11 @@
       <c r="D11" s="4">
         <v>0.98000196722505895</v>
       </c>
-      <c r="E11" s="1">
-        <v>5817.3602294921802</v>
+      <c r="E11" s="11">
+        <v>363.58501434326098</v>
       </c>
       <c r="F11" s="1">
-        <v>3295.82983398437</v>
+        <v>205.98936462402301</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3901,11 +3902,11 @@
       <c r="D12" s="4">
         <v>0.980625699899492</v>
       </c>
-      <c r="E12" s="1">
-        <v>5855.9415283203098</v>
+      <c r="E12" s="11">
+        <v>365.99634552001902</v>
       </c>
       <c r="F12" s="1">
-        <v>3313.0929565429601</v>
+        <v>207.06830978393501</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3921,11 +3922,11 @@
       <c r="D13" s="4">
         <v>0.98122843395173098</v>
       </c>
-      <c r="E13" s="1">
-        <v>5882.7336425781205</v>
+      <c r="E13" s="11">
+        <v>367.67085266113202</v>
       </c>
       <c r="F13" s="1">
-        <v>3328.2852783203102</v>
+        <v>208.01782989501899</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3941,11 +3942,11 @@
       <c r="D14" s="4">
         <v>0.98170330003517503</v>
       </c>
-      <c r="E14" s="1">
-        <v>5904.3582763671802</v>
+      <c r="E14" s="11">
+        <v>369.02239227294899</v>
       </c>
       <c r="F14" s="1">
-        <v>3335.7627563476499</v>
+        <v>208.485172271728</v>
       </c>
     </row>
   </sheetData>

--- a/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE408A-16A7-4B0E-B335-EC56E5C6313D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1A3C9-910B-48D9-8477-B85F13F47CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="TEST19" sheetId="10" r:id="rId10"/>
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
+    <sheet name="Lenna256" sheetId="13" r:id="rId13"/>
+    <sheet name="Lenna512" sheetId="14" r:id="rId14"/>
+    <sheet name="Boat512" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -1717,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A869FC-A6DC-4C72-9A4F-9DAD44393E2F}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2016,6 +2019,954 @@
       </c>
       <c r="F14" s="1">
         <v>4161.5880432128897</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600FA70-0BB2-4851-A941-B9093A1E0A67}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.24609375</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22.722483329940601</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.59951107829703199</v>
+      </c>
+      <c r="E2" s="11">
+        <v>15708.324707031201</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4168.70556640625</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3.41796875</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23.601116222168201</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.65751669223870501</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15310.924316406201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4210.888671875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4.19921875</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24.438037057127801</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68768087369170094</v>
+      </c>
+      <c r="E4" s="11">
+        <v>14710.989746093701</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4449.53515625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5.17578125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25.2301992150615</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.71995175678879497</v>
+      </c>
+      <c r="E5" s="11">
+        <v>14273.123535156201</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4451.92236328125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>6.15234375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25.990641541635501</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.74585187711662804</v>
+      </c>
+      <c r="E6" s="11">
+        <v>13944.0625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4330.0026855468705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11">
+        <v>7.32421875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.669060115314402</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.77058885517089304</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13889.8037109375</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4463.2453613281205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>8.49609375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27.200304148395599</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.793704654985525</v>
+      </c>
+      <c r="E8" s="11">
+        <v>13072.167480468701</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4314.44091796875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="11">
+        <v>9.66796875</v>
+      </c>
+      <c r="C9" s="3">
+        <v>27.6519104300049</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.80727993105825002</v>
+      </c>
+      <c r="E9" s="11">
+        <v>13381.823730468701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4407.1711425781205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11.03515625</v>
+      </c>
+      <c r="C10" s="3">
+        <v>28.0749257539536</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.82166307172700404</v>
+      </c>
+      <c r="E10" s="11">
+        <v>13532.83984375</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4463.62646484375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11">
+        <v>12.20703125</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28.446853048725401</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.83263636142623199</v>
+      </c>
+      <c r="E11" s="11">
+        <v>13466.0791015625</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4430.4084472656205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>13.76953125</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28.855136143905</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.84300493883948902</v>
+      </c>
+      <c r="E12" s="11">
+        <v>12870.128417968701</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4432.5744628906205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11">
+        <v>15.13671875</v>
+      </c>
+      <c r="C13" s="3">
+        <v>29.182991741243502</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.85374486573969699</v>
+      </c>
+      <c r="E13" s="11">
+        <v>12731.283203125</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4459.4294433593705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>16.69921875</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29.502241883067899</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.86202766381905604</v>
+      </c>
+      <c r="E14" s="11">
+        <v>12909.704589843701</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4652.7756347656205</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB5479-D591-4ADC-8FA0-5E726F643B0F}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.06386947631835</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24.9109033111381</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68285316235626403</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7705.1197509765598</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1921.37268066406</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4.5983314514160103</v>
+      </c>
+      <c r="C3" s="3">
+        <v>27.043817413234599</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.74404865926328501</v>
+      </c>
+      <c r="E3" s="11">
+        <v>7120.2615966796802</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2095.2521362304601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.2169075012206996</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28.567949435969599</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.78228366929759197</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6803.5627441406205</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2134.39233398437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11">
+        <v>7.9293251037597603</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29.587861208794202</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.808997105745482</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6331.4078369140598</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2077.0591430663999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9.7687721252441406</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30.412885762523199</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.82830516917641195</v>
+      </c>
+      <c r="E6" s="11">
+        <v>6090.4384765625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2073.8525390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11">
+        <v>11.6440773010253</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31.130977557666</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.84452821444597304</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6024.8988037109302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2079.7769775390602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>13.729381561279199</v>
+      </c>
+      <c r="C8" s="3">
+        <v>31.753250781613499</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.85698972153898201</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5733.6735839843705</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2006.80895996093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="11">
+        <v>15.933895111083901</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32.285949475046301</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.86655487587201696</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5662.0870361328098</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2005.6621704101501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>18.329715728759702</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32.776969448820097</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.87507556487962601</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5556.3275146484302</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1974.97583007812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11">
+        <v>20.839786529541001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.206175994739901</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.882403488507982</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5398.1856689453098</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1933.1118774414001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>23.4990119934082</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.602899081108703</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.88917431221458498</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5344.2047119140598</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1925.0986938476501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11">
+        <v>26.275730133056602</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33.950783455056097</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.89407839112725396</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5247.0738525390598</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1890.41357421875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>29.139804840087798</v>
+      </c>
+      <c r="C14" s="3">
+        <v>34.260393522197901</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.89851648551737195</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5141.2606201171802</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1819.6936645507801</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA821C5-8EA6-4C6A-8EEF-3B8FFABF2178}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.5538444519042902</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23.5855149477052</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.64960671342165599</v>
+      </c>
+      <c r="E2" s="11">
+        <v>10481.7684326171</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3033.9613647460901</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3.8870811462402299</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24.928613568341401</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.69646210706955702</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10222.756347656201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3236.9725341796802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.0627708435058496</v>
+      </c>
+      <c r="C4" s="3">
+        <v>26.1159724449201</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.73649993674640202</v>
+      </c>
+      <c r="E4" s="11">
+        <v>10153.5671386718</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3328.2467651367101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6.3107490539550701</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27.0994659805365</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.76932402528951305</v>
+      </c>
+      <c r="E5" s="11">
+        <v>9947.3386230468695</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3440.5119018554601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>7.5917243957519496</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27.8116931232287</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.790589304272868</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9695.060546875</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3544.71704101562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.8957786560058594</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28.453049094824699</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.80868397789468205</v>
+      </c>
+      <c r="E7" s="11">
+        <v>9605.7203369140607</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3530.1306762695299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>10.305309295654199</v>
+      </c>
+      <c r="C8" s="3">
+        <v>29.011696506351299</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.82431289010289499</v>
+      </c>
+      <c r="E8" s="11">
+        <v>9370.5150146484302</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3461.0159912109302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11.767482757568301</v>
+      </c>
+      <c r="C9" s="3">
+        <v>29.512479698460901</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.83868540179486095</v>
+      </c>
+      <c r="E9" s="11">
+        <v>9056.8936767578107</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3359.73046875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>13.329982757568301</v>
+      </c>
+      <c r="C10" s="3">
+        <v>29.974549841789301</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85045052805731303</v>
+      </c>
+      <c r="E10" s="11">
+        <v>9034.8634033203107</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3380.13720703125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11">
+        <v>14.962673187255801</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30.410862605567701</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.8609221773204</v>
+      </c>
+      <c r="E11" s="11">
+        <v>9027.0676269531195</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3324.1206665038999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16.619396209716701</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30.798814838177599</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.86860253929309905</v>
+      </c>
+      <c r="E12" s="11">
+        <v>8885.5450439453107</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3333.3945922851499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11">
+        <v>18.353557586669901</v>
+      </c>
+      <c r="C13" s="3">
+        <v>31.163751066170398</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87669624433183801</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8827.0791015625</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3338.9646606445299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>20.1466560363769</v>
+      </c>
+      <c r="C14" s="3">
+        <v>31.512172342409698</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.88394153255181196</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8652.9903564453107</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3319.4954833984302</v>
       </c>
     </row>
   </sheetData>

--- a/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_8x8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <sheet name="Lenna512" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Boat512" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Trumpet" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Sailboat256" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -65,12 +66,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -356,7 +358,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -402,6 +404,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,14 +511,14 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +835,13 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,13 +1154,13 @@
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,13 +1473,13 @@
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,13 +1792,13 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,13 +2111,13 @@
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,13 +2430,13 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,17 +2745,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -2800,7 +2806,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.25</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>2135.76844787598</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>2134.56999206543</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.35</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>2075.21038818359</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>2043.23585510254</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.45</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>2017.34390258789</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>1986.27359008789</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>0.55</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>1988.46705627441</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>1946.16586303711</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.65</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>1906.79328918457</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.7</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>1894.90592956543</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.75</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>1881.71157836914</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.8</v>
       </c>
@@ -3038,6 +3044,325 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>1864.72763061523</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>9.5367431640625E-005</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>21.7305073712405</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.576628558961294</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>19527.5336914063</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>6123.5654296875</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>2.54583358764648</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>22.0249433339746</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.593580830734289</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>19615.2841796875</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6208.3759765625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>3.32231521606445</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>23.0049148178375</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.652604956574243</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>19346.34765625</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>6353.98852539063</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>4.05721664428711</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>23.8484993373896</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.681679243431224</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>19226.1630859375</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>6714.38012695313</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>4.83407974243164</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>24.6597479172126</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.714376397019248</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>18890.919921875</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6703.40258789063</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>5.65710067749023</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>25.432748668188</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.749028745162663</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>18040.4404296875</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>6922.685546875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>6.56366348266602</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>26.0440022614752</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.772825129670858</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>17446.6147460938</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>6753.72192382813</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>7.44237899780273</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>26.5678338795174</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.788508989974821</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>17325.2607421875</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6674.40771484375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>8.32509994506836</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>27.0278109431994</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.804807423711356</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>17024.8051757813</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>6714.509765625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>9.22403335571289</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>27.4952031772365</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.821417681717247</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>16819.6665039063</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>6743.05834960938</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>10.1546287536621</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>27.883406438124</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.832012336784862</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>16033.5810546875</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>6601.87158203125</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>11.1151695251465</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>28.2622371611714</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.840480784812741</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>15899.0498046875</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>6543.35522460938</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>12.1823310852051</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>28.6840577961015</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.85338983584454</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>15531.0791015625</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>6434.185546875</v>
       </c>
     </row>
   </sheetData>
@@ -3062,13 +3387,13 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,13 +3710,13 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,13 +4033,13 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,13 +4356,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,13 +4679,13 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,13 +5002,13 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,13 +5325,13 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,13 +5648,13 @@
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
